--- a/data/pca/factorExposure/factorExposure_2016-03-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-03-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0107797053832495</v>
+        <v>0.0152220841292629</v>
       </c>
       <c r="C2">
-        <v>0.05639160883583122</v>
+        <v>0.03988733684485583</v>
       </c>
       <c r="D2">
-        <v>0.03043691583826298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.07577511378087333</v>
+      </c>
+      <c r="E2">
+        <v>-0.127494929061106</v>
+      </c>
+      <c r="F2">
+        <v>-0.03905326809930817</v>
+      </c>
+      <c r="G2">
+        <v>0.001554716495002764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04077316695700395</v>
+        <v>0.02551502079173644</v>
       </c>
       <c r="C3">
-        <v>0.1238218733922406</v>
+        <v>0.06717836485619871</v>
       </c>
       <c r="D3">
-        <v>0.04913274497701857</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0749653641568019</v>
+      </c>
+      <c r="E3">
+        <v>-0.07933022883433526</v>
+      </c>
+      <c r="F3">
+        <v>0.05969470235492494</v>
+      </c>
+      <c r="G3">
+        <v>-0.08721355540944248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06238869955312495</v>
+        <v>0.06250104274416268</v>
       </c>
       <c r="C4">
-        <v>0.06206008607992911</v>
+        <v>0.06213653040058788</v>
       </c>
       <c r="D4">
-        <v>0.01990128507580936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06761296715851164</v>
+      </c>
+      <c r="E4">
+        <v>-0.1172366582121673</v>
+      </c>
+      <c r="F4">
+        <v>0.02161614914466422</v>
+      </c>
+      <c r="G4">
+        <v>0.0371380915991979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04122177992195942</v>
+        <v>0.03900468506026965</v>
       </c>
       <c r="C6">
-        <v>0.03651930246445116</v>
+        <v>0.02656481307464442</v>
       </c>
       <c r="D6">
-        <v>0.01930226542018968</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.07386723600318125</v>
+      </c>
+      <c r="E6">
+        <v>-0.1071752169889302</v>
+      </c>
+      <c r="F6">
+        <v>0.02399774705644861</v>
+      </c>
+      <c r="G6">
+        <v>-0.001384468539369689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02883549067037845</v>
+        <v>0.02237414587921562</v>
       </c>
       <c r="C7">
-        <v>0.03631021352133742</v>
+        <v>0.03474314017056339</v>
       </c>
       <c r="D7">
-        <v>0.0009752085930013442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05639857608394443</v>
+      </c>
+      <c r="E7">
+        <v>-0.09561322998630524</v>
+      </c>
+      <c r="F7">
+        <v>0.00246641006966369</v>
+      </c>
+      <c r="G7">
+        <v>0.08783869719121408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.009719163911282788</v>
+        <v>0.007984703768014627</v>
       </c>
       <c r="C8">
-        <v>0.04448985262611602</v>
+        <v>0.03596441996372374</v>
       </c>
       <c r="D8">
-        <v>0.02410733827176691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.04750383115092259</v>
+      </c>
+      <c r="E8">
+        <v>-0.07432868532578067</v>
+      </c>
+      <c r="F8">
+        <v>0.01564137550983571</v>
+      </c>
+      <c r="G8">
+        <v>-0.003022970853226604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03845604654619943</v>
+        <v>0.04244873160315846</v>
       </c>
       <c r="C9">
-        <v>0.04505716654694896</v>
+        <v>0.04864066481342555</v>
       </c>
       <c r="D9">
-        <v>0.01813732077397277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.05721680121898064</v>
+      </c>
+      <c r="E9">
+        <v>-0.09958579779797411</v>
+      </c>
+      <c r="F9">
+        <v>0.005114591454987823</v>
+      </c>
+      <c r="G9">
+        <v>0.0473102949649739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.06951327583155735</v>
+        <v>0.09809687781733076</v>
       </c>
       <c r="C10">
-        <v>-0.186190277691946</v>
+        <v>-0.2009405933578198</v>
       </c>
       <c r="D10">
-        <v>0.003225971835041927</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.007324749840634024</v>
+      </c>
+      <c r="E10">
+        <v>-0.04395414800675081</v>
+      </c>
+      <c r="F10">
+        <v>0.005450249661362118</v>
+      </c>
+      <c r="G10">
+        <v>0.02523036279189646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04402084269111944</v>
+        <v>0.03824363785677697</v>
       </c>
       <c r="C11">
-        <v>0.05000946588046123</v>
+        <v>0.0471957508279895</v>
       </c>
       <c r="D11">
-        <v>0.01541950347688183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0402459202040176</v>
+      </c>
+      <c r="E11">
+        <v>-0.0478053051122923</v>
+      </c>
+      <c r="F11">
+        <v>0.006621683027531459</v>
+      </c>
+      <c r="G11">
+        <v>0.05975895044894894</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04653120279282858</v>
+        <v>0.04023227162627839</v>
       </c>
       <c r="C12">
-        <v>0.04469576875139825</v>
+        <v>0.04489674298716152</v>
       </c>
       <c r="D12">
-        <v>-0.003011176108744156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.03414083837425409</v>
+      </c>
+      <c r="E12">
+        <v>-0.05814555825426222</v>
+      </c>
+      <c r="F12">
+        <v>0.004201105341976466</v>
+      </c>
+      <c r="G12">
+        <v>0.05408745903006999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01620976589680218</v>
+        <v>0.01556642942754439</v>
       </c>
       <c r="C13">
-        <v>0.05298458747287523</v>
+        <v>0.04111758605841153</v>
       </c>
       <c r="D13">
-        <v>0.003391760648783806</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0653380207924157</v>
+      </c>
+      <c r="E13">
+        <v>-0.1361740229608446</v>
+      </c>
+      <c r="F13">
+        <v>0.01419484920172155</v>
+      </c>
+      <c r="G13">
+        <v>0.05159095056094015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01193313563599024</v>
+        <v>0.007412758164654643</v>
       </c>
       <c r="C14">
-        <v>0.03424463254185875</v>
+        <v>0.02942446006574717</v>
       </c>
       <c r="D14">
-        <v>-0.004254708154389363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0405473695628663</v>
+      </c>
+      <c r="E14">
+        <v>-0.09059055196285533</v>
+      </c>
+      <c r="F14">
+        <v>-0.01537388203953088</v>
+      </c>
+      <c r="G14">
+        <v>0.05853535851432811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0001535906919917748</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006472402182414985</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0109952128027915</v>
+      </c>
+      <c r="E15">
+        <v>-0.01194747875387068</v>
+      </c>
+      <c r="F15">
+        <v>-0.001159554715321169</v>
+      </c>
+      <c r="G15">
+        <v>0.001592351900083654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.04175791011806396</v>
+        <v>0.03653390655316922</v>
       </c>
       <c r="C16">
-        <v>0.04696797834214789</v>
+        <v>0.04430860541572383</v>
       </c>
       <c r="D16">
-        <v>0.00108594499211452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.03454002460538442</v>
+      </c>
+      <c r="E16">
+        <v>-0.06212292630881106</v>
+      </c>
+      <c r="F16">
+        <v>-0.008768071588327035</v>
+      </c>
+      <c r="G16">
+        <v>0.04953917605490304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02553136455006158</v>
+        <v>0.01939817883615459</v>
       </c>
       <c r="C19">
-        <v>0.06031894957109937</v>
+        <v>0.04392187063180931</v>
       </c>
       <c r="D19">
-        <v>0.06098871511435836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09453803918098366</v>
+      </c>
+      <c r="E19">
+        <v>-0.1285349813749639</v>
+      </c>
+      <c r="F19">
+        <v>-0.01743879141187054</v>
+      </c>
+      <c r="G19">
+        <v>0.003094308243866859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.02072962963639107</v>
+        <v>0.01703632943276897</v>
       </c>
       <c r="C20">
-        <v>0.04733440349144472</v>
+        <v>0.03854110363784239</v>
       </c>
       <c r="D20">
-        <v>0.001656389560187814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04749003052080989</v>
+      </c>
+      <c r="E20">
+        <v>-0.1050939777538056</v>
+      </c>
+      <c r="F20">
+        <v>-0.001186224810334622</v>
+      </c>
+      <c r="G20">
+        <v>0.03178368858359513</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01750865565320187</v>
+        <v>0.01473501301542473</v>
       </c>
       <c r="C21">
-        <v>0.05624319086770588</v>
+        <v>0.04343643276826598</v>
       </c>
       <c r="D21">
-        <v>0.01587558804099365</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07312973442412059</v>
+      </c>
+      <c r="E21">
+        <v>-0.1573887498998934</v>
+      </c>
+      <c r="F21">
+        <v>-0.01667033037105008</v>
+      </c>
+      <c r="G21">
+        <v>0.06675813476706695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0006938119097128615</v>
+        <v>0.005085649185143598</v>
       </c>
       <c r="C22">
-        <v>0.01310655433571329</v>
+        <v>0.02897802063371814</v>
       </c>
       <c r="D22">
-        <v>0.02392923196475328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.06430781671299124</v>
+      </c>
+      <c r="E22">
+        <v>-0.07711707744016862</v>
+      </c>
+      <c r="F22">
+        <v>0.06120848295836667</v>
+      </c>
+      <c r="G22">
+        <v>-0.02714517354531708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0007044983267634455</v>
+        <v>0.005212917801393902</v>
       </c>
       <c r="C23">
-        <v>0.01311982622153396</v>
+        <v>0.02894269100107691</v>
       </c>
       <c r="D23">
-        <v>0.02389564348548663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.06352828177312746</v>
+      </c>
+      <c r="E23">
+        <v>-0.07727834887643277</v>
+      </c>
+      <c r="F23">
+        <v>0.06122450542394476</v>
+      </c>
+      <c r="G23">
+        <v>-0.02677161121732868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03900256244625396</v>
+        <v>0.03762786706680218</v>
       </c>
       <c r="C24">
-        <v>0.04825119518639959</v>
+        <v>0.05223222815640298</v>
       </c>
       <c r="D24">
-        <v>0.007741059898711604</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.03672341939762176</v>
+      </c>
+      <c r="E24">
+        <v>-0.0677635312441808</v>
+      </c>
+      <c r="F24">
+        <v>-0.004766055646820739</v>
+      </c>
+      <c r="G24">
+        <v>0.06382185427054876</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04966106194204172</v>
+        <v>0.04475939216731169</v>
       </c>
       <c r="C25">
-        <v>0.05719635123947205</v>
+        <v>0.05499219608988837</v>
       </c>
       <c r="D25">
-        <v>0.0001194625244876094</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03320095545180319</v>
+      </c>
+      <c r="E25">
+        <v>-0.05974277115730472</v>
+      </c>
+      <c r="F25">
+        <v>0.008313155236721327</v>
+      </c>
+      <c r="G25">
+        <v>0.07064247784973798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02017916072362641</v>
+        <v>0.01809478531938874</v>
       </c>
       <c r="C26">
-        <v>0.01364034686426443</v>
+        <v>0.01520487205270725</v>
       </c>
       <c r="D26">
-        <v>0.0104890379651295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03805323746789383</v>
+      </c>
+      <c r="E26">
+        <v>-0.07129256117033962</v>
+      </c>
+      <c r="F26">
+        <v>-0.0132863749243846</v>
+      </c>
+      <c r="G26">
+        <v>0.03061597480549333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.08923373954646499</v>
+        <v>0.1364271804626963</v>
       </c>
       <c r="C28">
-        <v>-0.258038162498492</v>
+        <v>-0.2617617237154244</v>
       </c>
       <c r="D28">
-        <v>-0.007671490458306121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02511533382732836</v>
+      </c>
+      <c r="E28">
+        <v>-0.06478927543793291</v>
+      </c>
+      <c r="F28">
+        <v>0.005510725387868339</v>
+      </c>
+      <c r="G28">
+        <v>0.05403414640214691</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01041334872663615</v>
+        <v>0.007805200621007032</v>
       </c>
       <c r="C29">
-        <v>0.02944724396807534</v>
+        <v>0.0270597453699248</v>
       </c>
       <c r="D29">
-        <v>-0.008903195455770741</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03323048965737075</v>
+      </c>
+      <c r="E29">
+        <v>-0.08456842422279058</v>
+      </c>
+      <c r="F29">
+        <v>-0.005436874743627656</v>
+      </c>
+      <c r="G29">
+        <v>0.06222982821780691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04675444229922525</v>
+        <v>0.0463446187287624</v>
       </c>
       <c r="C30">
-        <v>0.0489178296555346</v>
+        <v>0.05510182087761248</v>
       </c>
       <c r="D30">
-        <v>0.07756635207174054</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1207016701708296</v>
+      </c>
+      <c r="E30">
+        <v>-0.1095390287734458</v>
+      </c>
+      <c r="F30">
+        <v>-0.003642942566892304</v>
+      </c>
+      <c r="G30">
+        <v>0.0007173931204494308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.06425621696607141</v>
+        <v>0.06200692188840926</v>
       </c>
       <c r="C31">
-        <v>0.04332877747662839</v>
+        <v>0.0587872968944897</v>
       </c>
       <c r="D31">
-        <v>-0.04255731255720053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.001923217552818211</v>
+      </c>
+      <c r="E31">
+        <v>-0.09049720104375267</v>
+      </c>
+      <c r="F31">
+        <v>0.03013590021085878</v>
+      </c>
+      <c r="G31">
+        <v>0.03847494982628369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006899733034123527</v>
+        <v>0.01117573664607693</v>
       </c>
       <c r="C32">
-        <v>0.03811026839063728</v>
+        <v>0.03393924007358625</v>
       </c>
       <c r="D32">
-        <v>0.05939626044240159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.06892686711497248</v>
+      </c>
+      <c r="E32">
+        <v>-0.07895604750007537</v>
+      </c>
+      <c r="F32">
+        <v>-0.01680012783551437</v>
+      </c>
+      <c r="G32">
+        <v>0.06225994947819564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03507170833377565</v>
+        <v>0.02904367937485505</v>
       </c>
       <c r="C33">
-        <v>0.05806265436864867</v>
+        <v>0.05144464834013993</v>
       </c>
       <c r="D33">
-        <v>0.03735669728883607</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0854641972507952</v>
+      </c>
+      <c r="E33">
+        <v>-0.1191526850197804</v>
+      </c>
+      <c r="F33">
+        <v>0.01055027782308777</v>
+      </c>
+      <c r="G33">
+        <v>0.06034258155363057</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04502227546936646</v>
+        <v>0.04081513558265865</v>
       </c>
       <c r="C34">
-        <v>0.06328684536532546</v>
+        <v>0.06245852014541563</v>
       </c>
       <c r="D34">
-        <v>0.02061181355858208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04322026091637921</v>
+      </c>
+      <c r="E34">
+        <v>-0.04823949151145938</v>
+      </c>
+      <c r="F34">
+        <v>-0.00431472149517506</v>
+      </c>
+      <c r="G34">
+        <v>0.0715762711845634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-1.085764798364165e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2.88288940624565e-05</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>6.670274176059231e-05</v>
+      </c>
+      <c r="E35">
+        <v>0.000630028624705958</v>
+      </c>
+      <c r="F35">
+        <v>-0.0001119317124765345</v>
+      </c>
+      <c r="G35">
+        <v>0.0004114824977772203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0190679967514196</v>
+        <v>0.01701641116961141</v>
       </c>
       <c r="C36">
-        <v>0.0165661979357449</v>
+        <v>0.01253181322975247</v>
       </c>
       <c r="D36">
-        <v>0.001094331236374573</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03718815892417896</v>
+      </c>
+      <c r="E36">
+        <v>-0.08294018599059146</v>
+      </c>
+      <c r="F36">
+        <v>0.0007039672946905065</v>
+      </c>
+      <c r="G36">
+        <v>0.04590205830614071</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03096537381007623</v>
+        <v>0.02422737082821196</v>
       </c>
       <c r="C38">
-        <v>0.03244892213784455</v>
+        <v>0.02462263555004875</v>
       </c>
       <c r="D38">
-        <v>-0.01621120020412043</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02933602459631888</v>
+      </c>
+      <c r="E38">
+        <v>-0.07229859757510118</v>
+      </c>
+      <c r="F38">
+        <v>0.001248243320015498</v>
+      </c>
+      <c r="G38">
+        <v>0.002457058153728365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04943939095612415</v>
+        <v>0.04339728863679029</v>
       </c>
       <c r="C39">
-        <v>0.05720550116958573</v>
+        <v>0.06036920973159834</v>
       </c>
       <c r="D39">
-        <v>0.02217969337637695</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0654823945792969</v>
+      </c>
+      <c r="E39">
+        <v>-0.08001061969618385</v>
+      </c>
+      <c r="F39">
+        <v>-0.02190044038895142</v>
+      </c>
+      <c r="G39">
+        <v>0.05559599851438216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01245789470747582</v>
+        <v>0.01534975386384488</v>
       </c>
       <c r="C40">
-        <v>0.05469310213181517</v>
+        <v>0.03888337574851278</v>
       </c>
       <c r="D40">
-        <v>-0.003392563293162998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04113405236476104</v>
+      </c>
+      <c r="E40">
+        <v>-0.1197019442918773</v>
+      </c>
+      <c r="F40">
+        <v>0.02687064980912768</v>
+      </c>
+      <c r="G40">
+        <v>0.05573191695232394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02442434032298307</v>
+        <v>0.02094801739886286</v>
       </c>
       <c r="C41">
-        <v>0.01341949746726038</v>
+        <v>0.009585787619570778</v>
       </c>
       <c r="D41">
-        <v>-0.002297101343214604</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02427882026648263</v>
+      </c>
+      <c r="E41">
+        <v>-0.07866069865732558</v>
+      </c>
+      <c r="F41">
+        <v>-0.001013535762149</v>
+      </c>
+      <c r="G41">
+        <v>0.0320720110603411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0467214954939433</v>
+        <v>0.03271574890493365</v>
       </c>
       <c r="C43">
-        <v>0.03349592011185735</v>
+        <v>0.02401234532700585</v>
       </c>
       <c r="D43">
-        <v>0.008218746289675701</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.05215433064437331</v>
+      </c>
+      <c r="E43">
+        <v>-0.09301166803303286</v>
+      </c>
+      <c r="F43">
+        <v>0.01976989532212066</v>
+      </c>
+      <c r="G43">
+        <v>0.05197179171759877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01889309170378946</v>
+        <v>0.01984057966958871</v>
       </c>
       <c r="C44">
-        <v>0.06955878714887623</v>
+        <v>0.04787673987865641</v>
       </c>
       <c r="D44">
-        <v>-0.01514357152231601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03983523754212378</v>
+      </c>
+      <c r="E44">
+        <v>-0.1141061552043346</v>
+      </c>
+      <c r="F44">
+        <v>-0.01412683707765722</v>
+      </c>
+      <c r="G44">
+        <v>0.02882085027777859</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0139993391045249</v>
+        <v>0.01290844677156779</v>
       </c>
       <c r="C46">
-        <v>0.02579244008123206</v>
+        <v>0.02852340792068277</v>
       </c>
       <c r="D46">
-        <v>-0.01583734409999125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02829656382100496</v>
+      </c>
+      <c r="E46">
+        <v>-0.09740466492688478</v>
+      </c>
+      <c r="F46">
+        <v>-0.01664275689538374</v>
+      </c>
+      <c r="G46">
+        <v>0.07238840115575436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.09224133858689526</v>
+        <v>0.09349231353852186</v>
       </c>
       <c r="C47">
-        <v>0.06494957733054905</v>
+        <v>0.07808330441431967</v>
       </c>
       <c r="D47">
-        <v>-0.05337460432675239</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01758494959533031</v>
+      </c>
+      <c r="E47">
+        <v>-0.07931926722450038</v>
+      </c>
+      <c r="F47">
+        <v>0.0200035245983089</v>
+      </c>
+      <c r="G47">
+        <v>0.06415780902205021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02072327394919499</v>
+        <v>0.01911053123574617</v>
       </c>
       <c r="C48">
-        <v>0.01184322212091283</v>
+        <v>0.01429798482314892</v>
       </c>
       <c r="D48">
-        <v>-0.02091267334260428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02196395658377388</v>
+      </c>
+      <c r="E48">
+        <v>-0.09852664057937587</v>
+      </c>
+      <c r="F48">
+        <v>-0.008032703934130057</v>
+      </c>
+      <c r="G48">
+        <v>0.05122833782972878</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.08575532212226089</v>
+        <v>0.07344623865967803</v>
       </c>
       <c r="C50">
-        <v>0.08463362715968643</v>
+        <v>0.07472172183047592</v>
       </c>
       <c r="D50">
-        <v>-0.05748899846589739</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0003092905238859354</v>
+      </c>
+      <c r="E50">
+        <v>-0.09170616302885952</v>
+      </c>
+      <c r="F50">
+        <v>0.05504980987405119</v>
+      </c>
+      <c r="G50">
+        <v>0.031657215329142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01496697796579301</v>
+        <v>0.01123259059924117</v>
       </c>
       <c r="C51">
-        <v>0.04911541088232069</v>
+        <v>0.03053030213913835</v>
       </c>
       <c r="D51">
-        <v>0.04485151768538186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.07044176746776876</v>
+      </c>
+      <c r="E51">
+        <v>-0.08576897892935401</v>
+      </c>
+      <c r="F51">
+        <v>-0.01424628180246383</v>
+      </c>
+      <c r="G51">
+        <v>0.02942008845111403</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.08522398990924113</v>
+        <v>0.09901567619511464</v>
       </c>
       <c r="C53">
-        <v>0.07806395246684156</v>
+        <v>0.08505670658467535</v>
       </c>
       <c r="D53">
-        <v>-0.07239199009883535</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05611221994881891</v>
+      </c>
+      <c r="E53">
+        <v>-0.0903988650010101</v>
+      </c>
+      <c r="F53">
+        <v>0.01559962342855875</v>
+      </c>
+      <c r="G53">
+        <v>0.05668978041045374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03859886972249833</v>
+        <v>0.031420449413814</v>
       </c>
       <c r="C54">
-        <v>0.03096972780191222</v>
+        <v>0.02969244120554224</v>
       </c>
       <c r="D54">
-        <v>0.003618447397974226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.04200497970595174</v>
+      </c>
+      <c r="E54">
+        <v>-0.09048525503170253</v>
+      </c>
+      <c r="F54">
+        <v>-0.007195638443010571</v>
+      </c>
+      <c r="G54">
+        <v>0.06338386146723499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.08293574079174214</v>
+        <v>0.09164491602819093</v>
       </c>
       <c r="C55">
-        <v>0.05073182528076035</v>
+        <v>0.06537248033335062</v>
       </c>
       <c r="D55">
-        <v>-0.06913116175579583</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05402942315656253</v>
+      </c>
+      <c r="E55">
+        <v>-0.05895335758809978</v>
+      </c>
+      <c r="F55">
+        <v>0.02659282906908585</v>
+      </c>
+      <c r="G55">
+        <v>0.02494470553948819</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1531971700062814</v>
+        <v>0.1561608043772804</v>
       </c>
       <c r="C56">
-        <v>0.08216833578129322</v>
+        <v>0.09991178365908331</v>
       </c>
       <c r="D56">
-        <v>-0.07224303452999639</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06011866495238908</v>
+      </c>
+      <c r="E56">
+        <v>-0.03909083298902503</v>
+      </c>
+      <c r="F56">
+        <v>0.01086596440217089</v>
+      </c>
+      <c r="G56">
+        <v>0.03015736247280255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05058481732116817</v>
+        <v>0.03730493742261599</v>
       </c>
       <c r="C58">
-        <v>-0.002378504463799198</v>
+        <v>0.01036891511231934</v>
       </c>
       <c r="D58">
-        <v>0.1628355509244341</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2676847248370248</v>
+      </c>
+      <c r="E58">
+        <v>-0.3506295448238756</v>
+      </c>
+      <c r="F58">
+        <v>0.1766339575811759</v>
+      </c>
+      <c r="G58">
+        <v>-0.6339775627544361</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1220369629592445</v>
+        <v>0.1407509374428764</v>
       </c>
       <c r="C59">
-        <v>-0.2088997191714093</v>
+        <v>-0.1954921923994982</v>
       </c>
       <c r="D59">
-        <v>0.02936465333031806</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03385430514509175</v>
+      </c>
+      <c r="E59">
+        <v>-0.03477869848061751</v>
+      </c>
+      <c r="F59">
+        <v>-0.02429501101926555</v>
+      </c>
+      <c r="G59">
+        <v>-0.01787096657813664</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2941547951325488</v>
+        <v>0.2672787932101084</v>
       </c>
       <c r="C60">
-        <v>0.1035640387254789</v>
+        <v>0.09601844307256412</v>
       </c>
       <c r="D60">
-        <v>0.2781733915163606</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2490138866599396</v>
+      </c>
+      <c r="E60">
+        <v>0.2491293998915199</v>
+      </c>
+      <c r="F60">
+        <v>0.101649922799074</v>
+      </c>
+      <c r="G60">
+        <v>0.04316443269147782</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04776021410484804</v>
+        <v>0.04494055346341708</v>
       </c>
       <c r="C61">
-        <v>0.05370357671305549</v>
+        <v>0.05428530686105756</v>
       </c>
       <c r="D61">
-        <v>0.01915608141628294</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05286938977594958</v>
+      </c>
+      <c r="E61">
+        <v>-0.07578196162716021</v>
+      </c>
+      <c r="F61">
+        <v>-0.000604877687792253</v>
+      </c>
+      <c r="G61">
+        <v>0.06730582233585274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01898971983965868</v>
+        <v>0.01861827629074064</v>
       </c>
       <c r="C63">
-        <v>0.03424363088184746</v>
+        <v>0.03040821294130681</v>
       </c>
       <c r="D63">
-        <v>-0.02276997127573581</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02715407633358869</v>
+      </c>
+      <c r="E63">
+        <v>-0.09151205876507715</v>
+      </c>
+      <c r="F63">
+        <v>0.01728422618811135</v>
+      </c>
+      <c r="G63">
+        <v>0.02799033184453908</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.05452731430358382</v>
+        <v>0.05885294494313111</v>
       </c>
       <c r="C64">
-        <v>0.04668363471582656</v>
+        <v>0.05874758449357721</v>
       </c>
       <c r="D64">
-        <v>0.002155113030625367</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01849971026839799</v>
+      </c>
+      <c r="E64">
+        <v>-0.06118765093226642</v>
+      </c>
+      <c r="F64">
+        <v>-0.01687061846768912</v>
+      </c>
+      <c r="G64">
+        <v>0.07887854391536264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.07860691338126767</v>
+        <v>0.06495744551070029</v>
       </c>
       <c r="C65">
-        <v>0.02471636864845463</v>
+        <v>0.02469751798078313</v>
       </c>
       <c r="D65">
-        <v>0.05199707317311359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.09643935667747816</v>
+      </c>
+      <c r="E65">
+        <v>-0.0609272535828872</v>
+      </c>
+      <c r="F65">
+        <v>0.03057020340911506</v>
+      </c>
+      <c r="G65">
+        <v>-0.06019649568028859</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06248419378731537</v>
+        <v>0.05510506227350492</v>
       </c>
       <c r="C66">
-        <v>0.07660153686603244</v>
+        <v>0.07575893640442885</v>
       </c>
       <c r="D66">
-        <v>0.0388963914352625</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08799617847977313</v>
+      </c>
+      <c r="E66">
+        <v>-0.09208698160429904</v>
+      </c>
+      <c r="F66">
+        <v>-0.003599819373083375</v>
+      </c>
+      <c r="G66">
+        <v>0.05235195011118568</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0510812441641103</v>
+        <v>0.04355738695191659</v>
       </c>
       <c r="C67">
-        <v>0.0319149229199315</v>
+        <v>0.02870962726112697</v>
       </c>
       <c r="D67">
-        <v>-0.02568729650976026</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.008349155440086015</v>
+      </c>
+      <c r="E67">
+        <v>-0.04396953954802195</v>
+      </c>
+      <c r="F67">
+        <v>0.002948866638740456</v>
+      </c>
+      <c r="G67">
+        <v>0.009427363675410392</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1229424082660433</v>
+        <v>0.1468135995327125</v>
       </c>
       <c r="C68">
-        <v>-0.2838856599746039</v>
+        <v>-0.2449303188737533</v>
       </c>
       <c r="D68">
-        <v>-0.007655750042684997</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.007270584269060405</v>
+      </c>
+      <c r="E68">
+        <v>-0.05122136826413093</v>
+      </c>
+      <c r="F68">
+        <v>0.01405473936992924</v>
+      </c>
+      <c r="G68">
+        <v>-0.009115844366603123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.09428773787997259</v>
+        <v>0.09002391003493472</v>
       </c>
       <c r="C69">
-        <v>0.07256754140829821</v>
+        <v>0.08905979987410442</v>
       </c>
       <c r="D69">
-        <v>-0.05048309118835451</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.003909553881533597</v>
+      </c>
+      <c r="E69">
+        <v>-0.07823687857776063</v>
+      </c>
+      <c r="F69">
+        <v>-0.0102316339778837</v>
+      </c>
+      <c r="G69">
+        <v>0.07730683907687091</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1126729694470396</v>
+        <v>0.1418196648842472</v>
       </c>
       <c r="C71">
-        <v>-0.2606267662093</v>
+        <v>-0.2458332816279987</v>
       </c>
       <c r="D71">
-        <v>0.008296922540998081</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.009380279137476728</v>
+      </c>
+      <c r="E71">
+        <v>-0.07091508094682762</v>
+      </c>
+      <c r="F71">
+        <v>0.03043108758137041</v>
+      </c>
+      <c r="G71">
+        <v>0.03608044493196671</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1009102643124871</v>
+        <v>0.1061776529982259</v>
       </c>
       <c r="C72">
-        <v>0.04472134097795199</v>
+        <v>0.0478831396578523</v>
       </c>
       <c r="D72">
-        <v>0.01373559205425539</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.05269389648699455</v>
+      </c>
+      <c r="E72">
+        <v>-0.05136680364525013</v>
+      </c>
+      <c r="F72">
+        <v>0.0297294819534629</v>
+      </c>
+      <c r="G72">
+        <v>0.05939856071714388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3756132474280028</v>
+        <v>0.3214612966249879</v>
       </c>
       <c r="C73">
-        <v>0.06599126720500816</v>
+        <v>0.07632580922675525</v>
       </c>
       <c r="D73">
-        <v>0.5829417235006882</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4902047014974093</v>
+      </c>
+      <c r="E73">
+        <v>0.5042872174107407</v>
+      </c>
+      <c r="F73">
+        <v>0.1832714037683946</v>
+      </c>
+      <c r="G73">
+        <v>-0.02395327417471564</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1080020153784262</v>
+        <v>0.1111429584677794</v>
       </c>
       <c r="C74">
-        <v>0.09230718574473966</v>
+        <v>0.09124800771872919</v>
       </c>
       <c r="D74">
-        <v>-0.05881586966244608</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0464849397258714</v>
+      </c>
+      <c r="E74">
+        <v>-0.06625380127952497</v>
+      </c>
+      <c r="F74">
+        <v>0.03627386527696098</v>
+      </c>
+      <c r="G74">
+        <v>0.02007216799815563</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2572021644403471</v>
+        <v>0.2594192362429432</v>
       </c>
       <c r="C75">
-        <v>0.0857862112558614</v>
+        <v>0.1204470539640424</v>
       </c>
       <c r="D75">
-        <v>-0.1635996567301364</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1640933205543767</v>
+      </c>
+      <c r="E75">
+        <v>-0.001475478389993028</v>
+      </c>
+      <c r="F75">
+        <v>0.007270990995083306</v>
+      </c>
+      <c r="G75">
+        <v>-0.04453303135587983</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1188546885646836</v>
+        <v>0.1304696343018514</v>
       </c>
       <c r="C76">
-        <v>0.07749198758324119</v>
+        <v>0.08841191610381564</v>
       </c>
       <c r="D76">
-        <v>-0.09429174096639586</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07894251093367695</v>
+      </c>
+      <c r="E76">
+        <v>-0.08740759443731089</v>
+      </c>
+      <c r="F76">
+        <v>0.005490912862732305</v>
+      </c>
+      <c r="G76">
+        <v>0.02202247631393034</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08305268635979668</v>
+        <v>0.06933969465095027</v>
       </c>
       <c r="C77">
-        <v>0.03480126461271496</v>
+        <v>0.05498873365887931</v>
       </c>
       <c r="D77">
-        <v>0.05305603454468466</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07735946010717788</v>
+      </c>
+      <c r="E77">
+        <v>-0.1205599104702882</v>
+      </c>
+      <c r="F77">
+        <v>-0.2046594698049051</v>
+      </c>
+      <c r="G77">
+        <v>-0.1236045252111218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04921225562274951</v>
+        <v>0.04942280512224957</v>
       </c>
       <c r="C78">
-        <v>0.04114850204426247</v>
+        <v>0.05066591099903196</v>
       </c>
       <c r="D78">
-        <v>0.04106583338935339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08013766196230003</v>
+      </c>
+      <c r="E78">
+        <v>-0.08337680936756212</v>
+      </c>
+      <c r="F78">
+        <v>-0.005715590875141811</v>
+      </c>
+      <c r="G78">
+        <v>0.04923291884451059</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.001421913110801755</v>
+        <v>0.03573891770679172</v>
       </c>
       <c r="C79">
-        <v>0.001147269879994531</v>
+        <v>0.04952430383508141</v>
       </c>
       <c r="D79">
-        <v>0.005319169297934702</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.09251949336208139</v>
+      </c>
+      <c r="E79">
+        <v>-0.07493547986762265</v>
+      </c>
+      <c r="F79">
+        <v>0.03361735670524484</v>
+      </c>
+      <c r="G79">
+        <v>0.08078191890741133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03871025409002968</v>
+        <v>0.03061188084057915</v>
       </c>
       <c r="C80">
-        <v>0.04753947321580081</v>
+        <v>0.0493173742535053</v>
       </c>
       <c r="D80">
-        <v>0.03566153572345334</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04387609630118576</v>
+      </c>
+      <c r="E80">
+        <v>-0.02384044440146255</v>
+      </c>
+      <c r="F80">
+        <v>-0.04301695679547715</v>
+      </c>
+      <c r="G80">
+        <v>0.006736765069430696</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1466076783885129</v>
+        <v>0.1433372925619754</v>
       </c>
       <c r="C81">
-        <v>0.06673389764216513</v>
+        <v>0.08754357667591191</v>
       </c>
       <c r="D81">
-        <v>-0.1405527557335209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1295581553219522</v>
+      </c>
+      <c r="E81">
+        <v>-0.05376310867781423</v>
+      </c>
+      <c r="F81">
+        <v>0.007209779845458784</v>
+      </c>
+      <c r="G81">
+        <v>-0.008577634221495945</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.2110697122451375</v>
+        <v>0.2348987461400152</v>
       </c>
       <c r="C82">
-        <v>0.09076772604320661</v>
+        <v>0.1577435114011245</v>
       </c>
       <c r="D82">
-        <v>-0.1891125144333538</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2504582210936468</v>
+      </c>
+      <c r="E82">
+        <v>0.03798586368647866</v>
+      </c>
+      <c r="F82">
+        <v>-0.04497616743273422</v>
+      </c>
+      <c r="G82">
+        <v>0.3881687844097297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04336087495048847</v>
+        <v>0.02996246626997439</v>
       </c>
       <c r="C83">
-        <v>0.03869514795830559</v>
+        <v>0.04763794431292653</v>
       </c>
       <c r="D83">
-        <v>0.04403075746937228</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03614249883100108</v>
+      </c>
+      <c r="E83">
+        <v>-0.03193573253678914</v>
+      </c>
+      <c r="F83">
+        <v>-0.02512968029545173</v>
+      </c>
+      <c r="G83">
+        <v>-0.007531401679286589</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.000116654783779269</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001318801881347721</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0008323159240897733</v>
+      </c>
+      <c r="E84">
+        <v>-0.005548657290855797</v>
+      </c>
+      <c r="F84">
+        <v>0.001867226898701183</v>
+      </c>
+      <c r="G84">
+        <v>-0.003628509440429907</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2180456594713486</v>
+        <v>0.2018839305002158</v>
       </c>
       <c r="C85">
-        <v>0.09630296112445189</v>
+        <v>0.1126307712134648</v>
       </c>
       <c r="D85">
-        <v>-0.1745622891175167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1433118383323966</v>
+      </c>
+      <c r="E85">
+        <v>0.02546118868776064</v>
+      </c>
+      <c r="F85">
+        <v>0.07668232597572944</v>
+      </c>
+      <c r="G85">
+        <v>-0.03959604270359819</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01130044946413676</v>
+        <v>0.01548978190795178</v>
       </c>
       <c r="C86">
-        <v>0.02794714984942688</v>
+        <v>0.01508942733054341</v>
       </c>
       <c r="D86">
-        <v>0.04003124608314725</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.08021175895308313</v>
+      </c>
+      <c r="E86">
+        <v>-0.102351023625102</v>
+      </c>
+      <c r="F86">
+        <v>-0.01987180309172469</v>
+      </c>
+      <c r="G86">
+        <v>0.07128028503559568</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.03235148033296807</v>
+        <v>0.03285035341494064</v>
       </c>
       <c r="C87">
-        <v>-0.001755573663883486</v>
+        <v>0.01107999235639038</v>
       </c>
       <c r="D87">
-        <v>0.05298461281157582</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09574735943612439</v>
+      </c>
+      <c r="E87">
+        <v>-0.1412381613963364</v>
+      </c>
+      <c r="F87">
+        <v>-0.05054245739163572</v>
+      </c>
+      <c r="G87">
+        <v>-0.02422103150345135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1121516210989969</v>
+        <v>0.09443281913374256</v>
       </c>
       <c r="C88">
-        <v>0.08183856189492475</v>
+        <v>0.06762358775743318</v>
       </c>
       <c r="D88">
-        <v>-0.02044461251870676</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01641385332427471</v>
+      </c>
+      <c r="E88">
+        <v>-0.05597321699032475</v>
+      </c>
+      <c r="F88">
+        <v>-0.01775267550024874</v>
+      </c>
+      <c r="G88">
+        <v>0.04282926539878912</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1742662424879233</v>
+        <v>0.2124188226555856</v>
       </c>
       <c r="C89">
-        <v>-0.3842733724280098</v>
+        <v>-0.3856896129730735</v>
       </c>
       <c r="D89">
-        <v>-0.0302085079178588</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.009315288316799659</v>
+      </c>
+      <c r="E89">
+        <v>-0.07672108657053099</v>
+      </c>
+      <c r="F89">
+        <v>-0.07079817613838077</v>
+      </c>
+      <c r="G89">
+        <v>0.03007302543968276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1675198058445208</v>
+        <v>0.1931442422835424</v>
       </c>
       <c r="C90">
-        <v>-0.3367394338625873</v>
+        <v>-0.3126355343574365</v>
       </c>
       <c r="D90">
-        <v>-0.04007274209683524</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01205208878210487</v>
+      </c>
+      <c r="E90">
+        <v>-0.06214544873370992</v>
+      </c>
+      <c r="F90">
+        <v>-0.004904650328096349</v>
+      </c>
+      <c r="G90">
+        <v>0.0008928462859824334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1920667114833107</v>
+        <v>0.1876479443899667</v>
       </c>
       <c r="C91">
-        <v>0.1194110991598118</v>
+        <v>0.1396280397718033</v>
       </c>
       <c r="D91">
-        <v>-0.1529334588718624</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1360116535826976</v>
+      </c>
+      <c r="E91">
+        <v>-0.04968523337624847</v>
+      </c>
+      <c r="F91">
+        <v>0.0003151539081848514</v>
+      </c>
+      <c r="G91">
+        <v>-0.01351721026696926</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.160344583880712</v>
+        <v>0.1789390932867018</v>
       </c>
       <c r="C92">
-        <v>-0.2911836599474698</v>
+        <v>-0.2963519275891857</v>
       </c>
       <c r="D92">
-        <v>-0.03060469108725741</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01080768364333458</v>
+      </c>
+      <c r="E92">
+        <v>-0.07358991493463553</v>
+      </c>
+      <c r="F92">
+        <v>-0.03496157873385317</v>
+      </c>
+      <c r="G92">
+        <v>0.03795564119568908</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1869381819775322</v>
+        <v>0.2116350709326011</v>
       </c>
       <c r="C93">
-        <v>-0.3442597886306745</v>
+        <v>-0.3226657535343102</v>
       </c>
       <c r="D93">
-        <v>-0.05116831496286089</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02033212933314374</v>
+      </c>
+      <c r="E93">
+        <v>-0.03485973503557262</v>
+      </c>
+      <c r="F93">
+        <v>0.02321216703069262</v>
+      </c>
+      <c r="G93">
+        <v>0.04661783280718765</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3605838687812164</v>
+        <v>0.351518119286879</v>
       </c>
       <c r="C94">
-        <v>0.1133948819281656</v>
+        <v>0.1691876285535164</v>
       </c>
       <c r="D94">
-        <v>-0.4394885715041404</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4216957619124908</v>
+      </c>
+      <c r="E94">
+        <v>0.1051197323875758</v>
+      </c>
+      <c r="F94">
+        <v>-0.08698330872457297</v>
+      </c>
+      <c r="G94">
+        <v>-0.5037492123795558</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1178960843626617</v>
+        <v>0.08889885394209626</v>
       </c>
       <c r="C95">
-        <v>0.03720418651090124</v>
+        <v>0.05060550255919295</v>
       </c>
       <c r="D95">
-        <v>0.2928231117518501</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.2232980808509514</v>
+      </c>
+      <c r="E95">
+        <v>0.08613391993848164</v>
+      </c>
+      <c r="F95">
+        <v>-0.8999745822903181</v>
+      </c>
+      <c r="G95">
+        <v>-0.07147173547015222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1881846987331413</v>
+        <v>0.1850374918449334</v>
       </c>
       <c r="C98">
-        <v>0.03147801250527141</v>
+        <v>0.0489819902375388</v>
       </c>
       <c r="D98">
-        <v>0.2197244778761747</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.208669794474798</v>
+      </c>
+      <c r="E98">
+        <v>0.1461992875224386</v>
+      </c>
+      <c r="F98">
+        <v>0.1166099969953054</v>
+      </c>
+      <c r="G98">
+        <v>0.05403251281332527</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01014804826963377</v>
+        <v>0.007788676712737846</v>
       </c>
       <c r="C101">
-        <v>0.02914239297628095</v>
+        <v>0.02639644292504332</v>
       </c>
       <c r="D101">
-        <v>-0.008869891839009091</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03302488475896311</v>
+      </c>
+      <c r="E101">
+        <v>-0.08511447972573659</v>
+      </c>
+      <c r="F101">
+        <v>-0.006228256621670813</v>
+      </c>
+      <c r="G101">
+        <v>0.06239128912801852</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1230540736479416</v>
+        <v>0.1255479656289319</v>
       </c>
       <c r="C102">
-        <v>0.06519751616380001</v>
+        <v>0.09854732634704533</v>
       </c>
       <c r="D102">
-        <v>-0.05758196557929076</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06175501523042427</v>
+      </c>
+      <c r="E102">
+        <v>0.005579048269218195</v>
+      </c>
+      <c r="F102">
+        <v>-0.0297224313555307</v>
+      </c>
+      <c r="G102">
+        <v>0.03260724226228759</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
